--- a/data/trans_orig/Q5404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6433</v>
+        <v>5710</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01643953666291894</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05594197940848997</v>
+        <v>0.04966008958576981</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>7880</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3460</v>
+        <v>3446</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14883</v>
+        <v>15343</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0526937482528945</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02314106052556212</v>
+        <v>0.02304177662974712</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09952810042611916</v>
+        <v>0.1026031112727445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>9770</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4471</v>
+        <v>4443</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17815</v>
+        <v>18859</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03693401623329379</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01690057539038394</v>
+        <v>0.0167967359959073</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06734565985648998</v>
+        <v>0.07129282443155084</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>10157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5416</v>
+        <v>5349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17506</v>
+        <v>16099</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08833053639733512</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0471037353787704</v>
+        <v>0.0465168871308595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1522431514211701</v>
+        <v>0.1400041501735045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -836,19 +836,19 @@
         <v>5273</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2080</v>
+        <v>1961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12037</v>
+        <v>12372</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03525942858882621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01390737670863103</v>
+        <v>0.01311480342527104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08049329884661229</v>
+        <v>0.08273522731262659</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -857,19 +857,19 @@
         <v>15430</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9066</v>
+        <v>9360</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23833</v>
+        <v>25084</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05832947756698972</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03427155077232478</v>
+        <v>0.03538325087920216</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09009756116278125</v>
+        <v>0.0948263679190435</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>102942</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>95373</v>
+        <v>96125</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108425</v>
+        <v>107873</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8952299269397459</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8294113044318934</v>
+        <v>0.8359459095147648</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9429135999358411</v>
+        <v>0.9381154034788995</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -907,19 +907,19 @@
         <v>136383</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127811</v>
+        <v>127674</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>142001</v>
+        <v>142541</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9120468231582793</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8547255771481141</v>
+        <v>0.8538086060555737</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9496154064180734</v>
+        <v>0.9532294026481292</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>245</v>
@@ -928,19 +928,19 @@
         <v>239325</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>228801</v>
+        <v>228261</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>247594</v>
+        <v>247253</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9047365061997165</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8649528071004439</v>
+        <v>0.862911400101723</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9359980739653369</v>
+        <v>0.9347083673857198</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5649</v>
+        <v>6335</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0124622430950066</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03872354469725986</v>
+        <v>0.04342646002100751</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1053,19 +1053,19 @@
         <v>5963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2304</v>
+        <v>2051</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14131</v>
+        <v>12470</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03264247852287516</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01261381132859818</v>
+        <v>0.01122483973585571</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07735448501935878</v>
+        <v>0.06826234377230134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -1074,19 +1074,19 @@
         <v>7781</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2944</v>
+        <v>3583</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15976</v>
+        <v>15659</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02368218083433615</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008960124825433513</v>
+        <v>0.01090350047144185</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04862247515172154</v>
+        <v>0.04765757704882063</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>3753</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1028</v>
+        <v>910</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10249</v>
+        <v>9074</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02572619750431447</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007045675677936324</v>
+        <v>0.006235785423688774</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0702517021195521</v>
+        <v>0.06220037746903861</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1124,19 +1124,19 @@
         <v>8357</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3515</v>
+        <v>3395</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16758</v>
+        <v>16308</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04574668764964626</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01924256774277623</v>
+        <v>0.01858361100213033</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09173352936324247</v>
+        <v>0.08927051172028735</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1145,19 +1145,19 @@
         <v>12110</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6279</v>
+        <v>6575</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20773</v>
+        <v>22728</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.036857319028857</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0191116973678169</v>
+        <v>0.02001027458794039</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0632237122169297</v>
+        <v>0.06917325061386752</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>140318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133766</v>
+        <v>134319</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143250</v>
+        <v>144061</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.961811559400679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9169059990221289</v>
+        <v>0.9206915191103056</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.981913421657425</v>
+        <v>0.987466759166954</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>157</v>
@@ -1195,19 +1195,19 @@
         <v>168360</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>158667</v>
+        <v>159523</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>174678</v>
+        <v>175507</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9216108338274785</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8685538088489549</v>
+        <v>0.8732379166221597</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9561955466096957</v>
+        <v>0.9607366192470727</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>297</v>
@@ -1216,19 +1216,19 @@
         <v>308677</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>298364</v>
+        <v>298104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>316732</v>
+        <v>316520</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9394605001368068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9080726648522941</v>
+        <v>0.9072825633848572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9639768277235067</v>
+        <v>0.963331879130758</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>3491</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11024</v>
+        <v>10086</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03344706803490216</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007290984197793774</v>
+        <v>0.007326316338205904</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1056242943789345</v>
+        <v>0.09663899089855464</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1341,19 +1341,19 @@
         <v>6545</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2284</v>
+        <v>2874</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12645</v>
+        <v>12989</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0481814344929961</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01681630788035187</v>
+        <v>0.02115536435868488</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09307696890899755</v>
+        <v>0.0956092844258507</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1362,19 +1362,19 @@
         <v>10036</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4700</v>
+        <v>4769</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>18059</v>
+        <v>19306</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04177965425335287</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01956616120578127</v>
+        <v>0.01985095464430161</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07517584774240706</v>
+        <v>0.08036780044290948</v>
       </c>
     </row>
     <row r="13">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5999</v>
+        <v>5741</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01753240136607723</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05747516948454866</v>
+        <v>0.05500662280894343</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1412,19 +1412,19 @@
         <v>5746</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1985</v>
+        <v>1945</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12699</v>
+        <v>12039</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04229542332019327</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01460921314727484</v>
+        <v>0.01431754406973334</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09348153853097747</v>
+        <v>0.08862211409591829</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1433,19 +1433,19 @@
         <v>7576</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3663</v>
+        <v>2937</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13794</v>
+        <v>13683</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03153639780860578</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01525049381633459</v>
+        <v>0.01222760009304593</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05742297610536867</v>
+        <v>0.05696097750453817</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>99050</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91600</v>
+        <v>91668</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>102580</v>
+        <v>102493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9490205305990206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8776429715417255</v>
+        <v>0.8782944734995375</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9828439184665454</v>
+        <v>0.9820084621551647</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -1483,19 +1483,19 @@
         <v>123559</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>115700</v>
+        <v>116212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>128889</v>
+        <v>129597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9095231421868106</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8516716835558813</v>
+        <v>0.8554455094314122</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9487601554506757</v>
+        <v>0.9539717160532424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>225</v>
@@ -1504,19 +1504,19 @@
         <v>222609</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>213405</v>
+        <v>212353</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>230254</v>
+        <v>229504</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9266839479380413</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8883684866650841</v>
+        <v>0.8839922040453614</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9585077399622636</v>
+        <v>0.9553858023807665</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>3340</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7584</v>
+        <v>7783</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02433746098974938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006067388678219488</v>
+        <v>0.00609774199867537</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05526895522752532</v>
+        <v>0.05672036807769192</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1629,19 +1629,19 @@
         <v>8400</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3869</v>
+        <v>4010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15899</v>
+        <v>15831</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04023380577067716</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0185307005973302</v>
+        <v>0.01920828205218976</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07615473079685148</v>
+        <v>0.07582885685541066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1650,19 +1650,19 @@
         <v>11739</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6336</v>
+        <v>6201</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20478</v>
+        <v>19638</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03392950573083307</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01831189245056198</v>
+        <v>0.01792248949299076</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05918540898692526</v>
+        <v>0.05675795122739381</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>4983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1681</v>
+        <v>1707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10013</v>
+        <v>9897</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03631816694862911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01224903298892411</v>
+        <v>0.01243902909300511</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07297275691640029</v>
+        <v>0.07212326513578148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1700,19 +1700,19 @@
         <v>14333</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7632</v>
+        <v>8119</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22944</v>
+        <v>23212</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06865025964280966</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03655813987243067</v>
+        <v>0.03889012214646131</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1098965882532631</v>
+        <v>0.1111819164259059</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1721,19 +1721,19 @@
         <v>19316</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12299</v>
+        <v>12374</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29238</v>
+        <v>30100</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05582773873821031</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0355466879633595</v>
+        <v>0.03576226709928679</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08450410387775954</v>
+        <v>0.08699580678048566</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>128894</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>122925</v>
+        <v>123099</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133063</v>
+        <v>133061</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9393443720616215</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8958418416622662</v>
+        <v>0.8971129391625361</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9697245047850782</v>
+        <v>0.969715606735892</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>179</v>
@@ -1771,19 +1771,19 @@
         <v>186045</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>174317</v>
+        <v>174364</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>194309</v>
+        <v>194335</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8911159345865132</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8349432083823953</v>
+        <v>0.8351684821245478</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.930703470745271</v>
+        <v>0.9308280307319942</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>325</v>
@@ -1792,19 +1792,19 @@
         <v>314939</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>303474</v>
+        <v>303426</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>324604</v>
+        <v>324628</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9102427555309566</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8771059291227202</v>
+        <v>0.8769654100705505</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9381748813104827</v>
+        <v>0.9382437907969295</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>10539</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5209</v>
+        <v>5365</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18563</v>
+        <v>18854</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02097433554501325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01036780956313693</v>
+        <v>0.0106769937855161</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03694377233716712</v>
+        <v>0.03752370401794638</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -1917,19 +1917,19 @@
         <v>28788</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19061</v>
+        <v>19584</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40676</v>
+        <v>40052</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0425328731797484</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02816151057777279</v>
+        <v>0.02893442832714287</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06009684955103264</v>
+        <v>0.05917425656642269</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -1938,19 +1938,19 @@
         <v>39327</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27634</v>
+        <v>28488</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52417</v>
+        <v>52952</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03334745914221331</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02343205833371135</v>
+        <v>0.02415647125718613</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04444751716061437</v>
+        <v>0.04490056394154767</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>20724</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13193</v>
+        <v>14372</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29775</v>
+        <v>31579</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04124368864540114</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02625740491629797</v>
+        <v>0.02860351954795546</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05925715579993482</v>
+        <v>0.06284820924441316</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -1988,19 +1988,19 @@
         <v>33708</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22231</v>
+        <v>23392</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46250</v>
+        <v>46644</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04980181034342319</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03284483715013303</v>
+        <v>0.03456080512261933</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06833179557863503</v>
+        <v>0.06891471526137513</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>54</v>
@@ -2009,19 +2009,19 @@
         <v>54432</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>43103</v>
+        <v>41076</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>72349</v>
+        <v>70642</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04615546417134846</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03654966119998008</v>
+        <v>0.03483044918709861</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06134904417141986</v>
+        <v>0.05990104158532891</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>471204</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>459917</v>
+        <v>458962</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>480530</v>
+        <v>479663</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9377819758095856</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.915318971304072</v>
+        <v>0.9134183903726087</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9563438082618031</v>
+        <v>0.9546171213569796</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>603</v>
@@ -2059,19 +2059,19 @@
         <v>614346</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>598490</v>
+        <v>598847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>629860</v>
+        <v>628560</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9076653164768285</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8842392416862065</v>
+        <v>0.8847663762577932</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9305866179910566</v>
+        <v>0.9286653204450136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1092</v>
@@ -2080,19 +2080,19 @@
         <v>1085550</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1064641</v>
+        <v>1066793</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1102072</v>
+        <v>1104239</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9204970766864382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9027678560406265</v>
+        <v>0.9045923187532333</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9345074908199521</v>
+        <v>0.936344666133714</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>5070</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11422</v>
+        <v>11022</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03633490148256725</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01420358764212663</v>
+        <v>0.01416289062164142</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08184753547857752</v>
+        <v>0.0789872079123423</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2445,19 +2445,19 @@
         <v>8579</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4209</v>
+        <v>4215</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16986</v>
+        <v>15965</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05143392764551601</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02523632453693135</v>
+        <v>0.02527305377494923</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1018427492041751</v>
+        <v>0.09572139095851089</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2466,19 +2466,19 @@
         <v>13649</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7367</v>
+        <v>7454</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22543</v>
+        <v>22096</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04455571893250295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02404969962620166</v>
+        <v>0.02433451406720574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07358987642280351</v>
+        <v>0.07213143719432062</v>
       </c>
     </row>
     <row r="5">
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13367</v>
+        <v>12258</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02440376252507095</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09578923749034483</v>
+        <v>0.08784482234710045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -2516,19 +2516,19 @@
         <v>17153</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9985</v>
+        <v>10312</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27622</v>
+        <v>25688</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1028457169301556</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05986818112191043</v>
+        <v>0.061829338172762</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1656113028445356</v>
+        <v>0.1540153042508886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -2537,19 +2537,19 @@
         <v>20559</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11922</v>
+        <v>12741</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31019</v>
+        <v>32482</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06711227767174868</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0389196163461198</v>
+        <v>0.04159045676031112</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1012599394094441</v>
+        <v>0.1060342470051928</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>131071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121682</v>
+        <v>122370</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>136334</v>
+        <v>136438</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9392613359923618</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8719750669485432</v>
+        <v>0.876909819142652</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9769753022150599</v>
+        <v>0.9777241996081697</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>133</v>
@@ -2587,19 +2587,19 @@
         <v>141055</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>129113</v>
+        <v>130869</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149518</v>
+        <v>149381</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8457203554243284</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7741163483600911</v>
+        <v>0.7846478651644168</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8964606738935118</v>
+        <v>0.8956363761048938</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>255</v>
@@ -2608,19 +2608,19 @@
         <v>272126</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>258529</v>
+        <v>260218</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>282165</v>
+        <v>282362</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8883320033957484</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.843944614946515</v>
+        <v>0.8494599622901415</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9211009889493634</v>
+        <v>0.9217446845162232</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>6450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2333</v>
+        <v>2162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13545</v>
+        <v>12765</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04164423134551936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01506339837993623</v>
+        <v>0.01396200802224994</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08745710679362337</v>
+        <v>0.08242141965421479</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -2733,19 +2733,19 @@
         <v>15096</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8417</v>
+        <v>8947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24484</v>
+        <v>24652</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0788655127003058</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04397116876436109</v>
+        <v>0.04674229661316939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1279091590440505</v>
+        <v>0.128785335235151</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -2754,19 +2754,19 @@
         <v>21546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13951</v>
+        <v>13938</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35263</v>
+        <v>32461</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06221869590456602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04028536074480404</v>
+        <v>0.04024806082334234</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1018292715209941</v>
+        <v>0.09373753650880283</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>14619</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7932</v>
+        <v>7855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24949</v>
+        <v>24379</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09439083003823023</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05121395682973272</v>
+        <v>0.05071514564530084</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1610872424095315</v>
+        <v>0.1574074487787344</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -2804,19 +2804,19 @@
         <v>26428</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17239</v>
+        <v>17941</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36338</v>
+        <v>37477</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1380642791539304</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09006065566264836</v>
+        <v>0.09372429829758326</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1898334870271511</v>
+        <v>0.1957848740455815</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>36</v>
@@ -2825,19 +2825,19 @@
         <v>41047</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>27942</v>
+        <v>29877</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>54264</v>
+        <v>56507</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1185317998892521</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08068653058340801</v>
+        <v>0.08627420314718616</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1566985630188565</v>
+        <v>0.1631730948897113</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>133809</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123573</v>
+        <v>124098</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141876</v>
+        <v>141671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8639649386162505</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.797875985200512</v>
+        <v>0.8012646516959047</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9160480188557381</v>
+        <v>0.9147238785443035</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>140</v>
@@ -2875,19 +2875,19 @@
         <v>149895</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137287</v>
+        <v>137420</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161590</v>
+        <v>160693</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7830702081457638</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7172034858796894</v>
+        <v>0.7178968929790667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8441665820674675</v>
+        <v>0.8394793893687309</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>260</v>
@@ -2896,19 +2896,19 @@
         <v>283704</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>267579</v>
+        <v>268819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>298846</v>
+        <v>299035</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8192495042061819</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7726849405972744</v>
+        <v>0.7762651656648604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8629720876840945</v>
+        <v>0.8635205933765343</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>6400</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2100</v>
+        <v>2133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14567</v>
+        <v>13947</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06178191553977381</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02026826901478238</v>
+        <v>0.02058850207604185</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1406127901182523</v>
+        <v>0.1346267346068921</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -3021,19 +3021,19 @@
         <v>9771</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4237</v>
+        <v>4415</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18040</v>
+        <v>18849</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06929057657138879</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03004226262116454</v>
+        <v>0.03130995643593445</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1279278473546418</v>
+        <v>0.1336663716078635</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -3042,19 +3042,19 @@
         <v>16172</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9207</v>
+        <v>9424</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27158</v>
+        <v>26626</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06611056765704505</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03763674841964893</v>
+        <v>0.03852471849411337</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1110221505890509</v>
+        <v>0.1088466460568276</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>3141</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7946</v>
+        <v>7697</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03031447058490401</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009507209632574396</v>
+        <v>0.009314870047842129</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07670398476969016</v>
+        <v>0.07429825744916141</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3092,19 +3092,19 @@
         <v>16131</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9682</v>
+        <v>8737</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25963</v>
+        <v>25525</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1143923296913153</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06865647546185839</v>
+        <v>0.06195747994092859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1841096310057916</v>
+        <v>0.1810046185991858</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3113,19 +3113,19 @@
         <v>19272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11983</v>
+        <v>10855</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29999</v>
+        <v>28093</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07878433775619142</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04898739528375403</v>
+        <v>0.04437692109092804</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1226379215277845</v>
+        <v>0.1148433948261078</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>94057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>85886</v>
+        <v>86227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99395</v>
+        <v>99345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9079036138753221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.829032882647471</v>
+        <v>0.8323211540241124</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9594280601530925</v>
+        <v>0.9589467840673064</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>106</v>
@@ -3163,19 +3163,19 @@
         <v>115116</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>103705</v>
+        <v>104389</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123464</v>
+        <v>123840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8163170937372959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7353939509189015</v>
+        <v>0.7402470977339297</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8755162058500472</v>
+        <v>0.8781799868491301</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -3184,19 +3184,19 @@
         <v>209173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>195729</v>
+        <v>197071</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>219639</v>
+        <v>219972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8551050945867635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8001457866534774</v>
+        <v>0.8056296029762369</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8978888244348016</v>
+        <v>0.8992518010806531</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>5115</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1987</v>
+        <v>1969</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11111</v>
+        <v>11006</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03164749708984241</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01229401526179933</v>
+        <v>0.01218086664066984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06875225561105723</v>
+        <v>0.06810136487702463</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3309,19 +3309,19 @@
         <v>12521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6409</v>
+        <v>7010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21140</v>
+        <v>20731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05136714278651047</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02629280992677866</v>
+        <v>0.0287579304380166</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08672987020962412</v>
+        <v>0.08504832534567355</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -3330,19 +3330,19 @@
         <v>17635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11102</v>
+        <v>10510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27424</v>
+        <v>27441</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04350515730254081</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02738677377869324</v>
+        <v>0.0259265832429745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0676532641839141</v>
+        <v>0.06769544308333666</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>9278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4174</v>
+        <v>4046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17864</v>
+        <v>17504</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05740909996877842</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02582709651943863</v>
+        <v>0.02503454821358089</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1105366169590651</v>
+        <v>0.1083069095801388</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -3380,19 +3380,19 @@
         <v>16020</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9914</v>
+        <v>9900</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25919</v>
+        <v>26384</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06572493114826748</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04067258360508568</v>
+        <v>0.04061388660200367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1063356120004936</v>
+        <v>0.1082402324189441</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -3401,19 +3401,19 @@
         <v>25299</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16317</v>
+        <v>16242</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36773</v>
+        <v>37821</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06240950930824263</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0402523324882938</v>
+        <v>0.04006801020179299</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09071607468831862</v>
+        <v>0.09330263273207401</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>147220</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>139223</v>
+        <v>137684</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>153570</v>
+        <v>153255</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9109434029413792</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.861456125603704</v>
+        <v>0.8519387294815496</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.950232802814061</v>
+        <v>0.9482852959277568</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>204</v>
@@ -3451,19 +3451,19 @@
         <v>215209</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>204289</v>
+        <v>203234</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>224437</v>
+        <v>224155</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8829079260652221</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8381105049794308</v>
+        <v>0.8337793817532764</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9207666810487767</v>
+        <v>0.9196113812752107</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>338</v>
@@ -3472,19 +3472,19 @@
         <v>362429</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>348469</v>
+        <v>347925</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>374053</v>
+        <v>374762</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8940853333892166</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8596470405403713</v>
+        <v>0.8583053935779645</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9227611779307303</v>
+        <v>0.9245084447267622</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>23035</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14769</v>
+        <v>15312</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34512</v>
+        <v>36255</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04116127063713625</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02638978357467246</v>
+        <v>0.02736078393329342</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0616679999766488</v>
+        <v>0.06478248244304262</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>41</v>
@@ -3597,19 +3597,19 @@
         <v>45967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33075</v>
+        <v>32880</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>61528</v>
+        <v>60027</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06186872954461366</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04451743422437261</v>
+        <v>0.04425434627080736</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08281286962662227</v>
+        <v>0.08079264293754047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -3618,19 +3618,19 @@
         <v>69002</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52783</v>
+        <v>54289</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87084</v>
+        <v>88554</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0529722502980939</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04052090298581836</v>
+        <v>0.04167670865795095</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06685306933464645</v>
+        <v>0.06798180263996782</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>30443</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20592</v>
+        <v>18926</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46028</v>
+        <v>43883</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05439804589150637</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03679510474407736</v>
+        <v>0.03381910162885333</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08224642058615753</v>
+        <v>0.07841265477823431</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>70</v>
@@ -3668,19 +3668,19 @@
         <v>75733</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>58801</v>
+        <v>58925</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>93069</v>
+        <v>94214</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1019326943315981</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07914330513159989</v>
+        <v>0.0793093092586854</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1252648010322518</v>
+        <v>0.1268064803232123</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>95</v>
@@ -3689,19 +3689,19 @@
         <v>106177</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>83866</v>
+        <v>87263</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>129235</v>
+        <v>126626</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08151053557096019</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06438284578466229</v>
+        <v>0.06699081536740274</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09921202771274758</v>
+        <v>0.09720919504644639</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>506158</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>489468</v>
+        <v>488971</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>519842</v>
+        <v>520483</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9044406834713574</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8746174569150441</v>
+        <v>0.8737279878496313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9288906047149047</v>
+        <v>0.9300363869034982</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>583</v>
@@ -3739,19 +3739,19 @@
         <v>621275</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>599300</v>
+        <v>599802</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>642599</v>
+        <v>642328</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8361985761237882</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8066214381136053</v>
+        <v>0.8072981419623485</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8648997013920214</v>
+        <v>0.8645350224356543</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1041</v>
@@ -3760,19 +3760,19 @@
         <v>1127433</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1099754</v>
+        <v>1101853</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1155855</v>
+        <v>1151729</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.865517214130946</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8442681628891058</v>
+        <v>0.8458796388421457</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8873367334712778</v>
+        <v>0.8841689812632321</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>5090</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1778</v>
+        <v>1752</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10191</v>
+        <v>10354</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03722800157283972</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01300445128185354</v>
+        <v>0.01281111303503452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07453365392425611</v>
+        <v>0.07572165657455612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4125,19 +4125,19 @@
         <v>4470</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1218</v>
+        <v>1185</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11052</v>
+        <v>10864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02577860107491095</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00702261379224562</v>
+        <v>0.006836195157644594</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06373904588433539</v>
+        <v>0.06265486247017527</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -4146,19 +4146,19 @@
         <v>9560</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4778</v>
+        <v>5321</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16826</v>
+        <v>17930</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03082663994035304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01540544557001627</v>
+        <v>0.01715634969788125</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05425656879190747</v>
+        <v>0.05781438610964065</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>4091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9214</v>
+        <v>8839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02991693221963361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01164280801394717</v>
+        <v>0.01165182267690051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06738279062446065</v>
+        <v>0.0646474173706818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -4196,19 +4196,19 @@
         <v>10095</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4987</v>
+        <v>4622</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17652</v>
+        <v>18217</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05822347957166978</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02876169820965012</v>
+        <v>0.02665491218700236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1018021660845016</v>
+        <v>0.1050614047333273</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -4217,19 +4217,19 @@
         <v>14186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8836</v>
+        <v>8444</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23866</v>
+        <v>23770</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04574312732917417</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02849031002952213</v>
+        <v>0.02722858213043969</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0769552216748884</v>
+        <v>0.07664706172256926</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>127553</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121493</v>
+        <v>121149</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131796</v>
+        <v>131991</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9328550662075267</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8885327149125867</v>
+        <v>0.8860207051237872</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9638855081508619</v>
+        <v>0.9653089960616517</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>144</v>
@@ -4267,19 +4267,19 @@
         <v>158826</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>150068</v>
+        <v>150724</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>164866</v>
+        <v>165574</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9159979193534192</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8654898658030948</v>
+        <v>0.8692695091657806</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9508349976969408</v>
+        <v>0.954916749582126</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>281</v>
@@ -4288,19 +4288,19 @@
         <v>286379</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>276344</v>
+        <v>273864</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>294415</v>
+        <v>293456</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9234302327304728</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8910744719477113</v>
+        <v>0.8830752937339138</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9493427342377425</v>
+        <v>0.9462522712059908</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>4460</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1745</v>
+        <v>1812</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9940</v>
+        <v>10644</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02704079650073084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01057852063315905</v>
+        <v>0.01098320697292714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06026468346373416</v>
+        <v>0.0645349870749472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -4413,19 +4413,19 @@
         <v>5363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1275</v>
+        <v>1258</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16112</v>
+        <v>13940</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02447178572106918</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005815884605426074</v>
+        <v>0.005740729439929071</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07351584328783464</v>
+        <v>0.06360685486787609</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -4434,19 +4434,19 @@
         <v>9823</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4156</v>
+        <v>4558</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19308</v>
+        <v>19199</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02557496298648822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01081877913413448</v>
+        <v>0.01186612890252335</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05026779889598757</v>
+        <v>0.04998470792990328</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>4182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1634</v>
+        <v>1641</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9313</v>
+        <v>9222</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02535475259495744</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009905074547260745</v>
+        <v>0.009949221801459532</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05646081201642581</v>
+        <v>0.0559135325357281</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -4484,19 +4484,19 @@
         <v>14053</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7304</v>
+        <v>8020</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>22943</v>
+        <v>23385</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06412030088366293</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03332781404591377</v>
+        <v>0.03659189491524008</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1046831808052317</v>
+        <v>0.1067032843922679</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -4505,19 +4505,19 @@
         <v>18235</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11412</v>
+        <v>11164</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29364</v>
+        <v>28264</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04747370994984208</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02970954074274187</v>
+        <v>0.02906473260843641</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07644914868878259</v>
+        <v>0.07358322559590039</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>156299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149593</v>
+        <v>148700</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160518</v>
+        <v>160633</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9476044509043117</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9069481375214961</v>
+        <v>0.9015344200397837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9731829867892018</v>
+        <v>0.9738785544004275</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -4555,19 +4555,19 @@
         <v>199747</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>188737</v>
+        <v>187730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>208192</v>
+        <v>207270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9114079133952679</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8611738876640764</v>
+        <v>0.8565760786282454</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9499420292921624</v>
+        <v>0.9457336332245645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>332</v>
@@ -4576,19 +4576,19 @@
         <v>356046</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>342529</v>
+        <v>342867</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>365428</v>
+        <v>365808</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9269513270636697</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8917616017838138</v>
+        <v>0.8926406300734526</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9513785679096453</v>
+        <v>0.952366617592548</v>
       </c>
     </row>
     <row r="11">
@@ -4683,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4807</v>
+        <v>4078</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006889421930999883</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04178739475448991</v>
+        <v>0.0354491459356362</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -4701,19 +4701,19 @@
         <v>7564</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2700</v>
+        <v>2678</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15863</v>
+        <v>15365</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05304742063748168</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01893497551421231</v>
+        <v>0.01878086873792306</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1112429386902475</v>
+        <v>0.1077532699060465</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -4722,19 +4722,19 @@
         <v>8357</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3531</v>
+        <v>3395</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17608</v>
+        <v>16471</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03243737615132651</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01370466653633353</v>
+        <v>0.0131796770834114</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06834526206588254</v>
+        <v>0.06393250654900745</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>5592</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1891</v>
+        <v>2511</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11579</v>
+        <v>11287</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04861336005145471</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01643765817994104</v>
+        <v>0.0218238252625663</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1006545790654785</v>
+        <v>0.09812169582046197</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -4772,19 +4772,19 @@
         <v>12721</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6402</v>
+        <v>6574</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21519</v>
+        <v>21171</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08921033992911355</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04489392484321594</v>
+        <v>0.04610310260589533</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1509064330219359</v>
+        <v>0.1484677449826052</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -4793,19 +4793,19 @@
         <v>18313</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10735</v>
+        <v>11125</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29196</v>
+        <v>28891</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07108335035569863</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04166682687594123</v>
+        <v>0.04318136478902035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1133258749309396</v>
+        <v>0.1121424176572032</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>108650</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>103036</v>
+        <v>101547</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112526</v>
+        <v>112111</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9444972180175454</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.895696139340434</v>
+        <v>0.8827510501197053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9781934407524845</v>
+        <v>0.9745776726292246</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -4843,19 +4843,19 @@
         <v>122311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112006</v>
+        <v>111491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131105</v>
+        <v>129883</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8577422394334048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7854756428983694</v>
+        <v>0.7818652160903745</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.919414274644252</v>
+        <v>0.9108461940380743</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>209</v>
@@ -4864,19 +4864,19 @@
         <v>230961</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218766</v>
+        <v>218720</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>240011</v>
+        <v>239517</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8964792734929748</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8491458650268913</v>
+        <v>0.8489654715862029</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9316086797067553</v>
+        <v>0.929689783424562</v>
       </c>
     </row>
     <row r="15">
@@ -4981,19 +4981,19 @@
         <v>11303</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5189</v>
+        <v>5147</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22066</v>
+        <v>21039</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04655791797094994</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02137357971924102</v>
+        <v>0.0211989390180244</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09088740733991453</v>
+        <v>0.0866584826979938</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -5002,19 +5002,19 @@
         <v>11303</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5256</v>
+        <v>5066</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20817</v>
+        <v>20911</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02708050095780241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01259219554652036</v>
+        <v>0.01213609364466131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04987402773546537</v>
+        <v>0.0500988871780467</v>
       </c>
     </row>
     <row r="17">
@@ -5031,19 +5031,19 @@
         <v>7087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3231</v>
+        <v>3039</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13648</v>
+        <v>13489</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04058547604323253</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01850090396764752</v>
+        <v>0.01740216462741668</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07815849932438695</v>
+        <v>0.07724743362189658</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -5052,19 +5052,19 @@
         <v>11741</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5978</v>
+        <v>5866</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21629</v>
+        <v>21085</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04836064080208211</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02462251130601613</v>
+        <v>0.02416298138080677</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0890899638489082</v>
+        <v>0.08684839308615917</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>17</v>
@@ -5073,19 +5073,19 @@
         <v>18828</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11156</v>
+        <v>11514</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30581</v>
+        <v>30350</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04510791531619304</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02672648236504745</v>
+        <v>0.02758404487861319</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07326616559675737</v>
+        <v>0.07271266700651173</v>
       </c>
     </row>
     <row r="18">
@@ -5102,19 +5102,19 @@
         <v>167531</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>160970</v>
+        <v>161129</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>171387</v>
+        <v>171579</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9594145239567675</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9218415006756132</v>
+        <v>0.9227525663781035</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9814990960323525</v>
+        <v>0.9825978353725833</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>181</v>
@@ -5123,19 +5123,19 @@
         <v>219737</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>207310</v>
+        <v>207058</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>229282</v>
+        <v>228052</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.905081441226968</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.853899091851317</v>
+        <v>0.85285927968901</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9443971238502326</v>
+        <v>0.9393338648122463</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>363</v>
@@ -5144,19 +5144,19 @@
         <v>387269</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>374194</v>
+        <v>374390</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>398297</v>
+        <v>396887</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9278115837260046</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8964872581296688</v>
+        <v>0.8969568930592106</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9542345419392138</v>
+        <v>0.9508548260506094</v>
       </c>
     </row>
     <row r="19">
@@ -5248,19 +5248,19 @@
         <v>10343</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5844</v>
+        <v>5197</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17167</v>
+        <v>17404</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01749111428859949</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00988215275980309</v>
+        <v>0.008788172878430414</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02903162397018215</v>
+        <v>0.0294325701623607</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -5269,19 +5269,19 @@
         <v>28701</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18923</v>
+        <v>18566</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43451</v>
+        <v>43157</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03689378359309833</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02432503773448905</v>
+        <v>0.02386531276041366</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05585410092911842</v>
+        <v>0.05547708727859246</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>33</v>
@@ -5290,19 +5290,19 @@
         <v>39044</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27023</v>
+        <v>26693</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54966</v>
+        <v>53192</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02851454955699161</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01973513049509634</v>
+        <v>0.01949430933560293</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04014264150016641</v>
+        <v>0.03884734101956832</v>
       </c>
     </row>
     <row r="21">
@@ -5319,19 +5319,19 @@
         <v>20952</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13035</v>
+        <v>13897</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29756</v>
+        <v>31637</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03543193718609717</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02204377908696857</v>
+        <v>0.02350179559726227</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0503211395768435</v>
+        <v>0.05350230398983605</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -5340,19 +5340,19 @@
         <v>48610</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>35489</v>
+        <v>35638</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>65365</v>
+        <v>64932</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06248665218588577</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04561911129135367</v>
+        <v>0.04581097228453407</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08402356918664891</v>
+        <v>0.08346809143397006</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>64</v>
@@ -5361,19 +5361,19 @@
         <v>69562</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>54159</v>
+        <v>55245</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>88793</v>
+        <v>89343</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05080280677236672</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03955338023796721</v>
+        <v>0.04034692258108839</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06484776049275262</v>
+        <v>0.06524893964847629</v>
       </c>
     </row>
     <row r="22">
@@ -5390,19 +5390,19 @@
         <v>560033</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>549389</v>
+        <v>548007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>569236</v>
+        <v>568650</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9470769485253033</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9290758126488511</v>
+        <v>0.9267393479134529</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9626406254093858</v>
+        <v>0.9616484236384575</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>594</v>
@@ -5411,19 +5411,19 @@
         <v>700620</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>681936</v>
+        <v>679359</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>717072</v>
+        <v>717071</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9006195642210159</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8766023318897539</v>
+        <v>0.8732901295892477</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9217683021599623</v>
+        <v>0.9217672881474646</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1185</v>
@@ -5432,19 +5432,19 @@
         <v>1260653</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1238010</v>
+        <v>1236976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1280886</v>
+        <v>1279168</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9206826436706417</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.904146258371019</v>
+        <v>0.9033907453438512</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9354590270904884</v>
+        <v>0.9342046679154595</v>
       </c>
     </row>
     <row r="23">
@@ -5776,19 +5776,19 @@
         <v>1549</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3803</v>
+        <v>4170</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009484254470290866</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002216492813416993</v>
+        <v>0.002281322652809624</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02328677161456743</v>
+        <v>0.02553419309890107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -5797,19 +5797,19 @@
         <v>8244</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5052</v>
+        <v>4866</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12681</v>
+        <v>12965</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04315457669152375</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02644435882849436</v>
+        <v>0.02547146226664006</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06638194407608598</v>
+        <v>0.06786821463269288</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -5818,19 +5818,19 @@
         <v>9793</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6223</v>
+        <v>6251</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14411</v>
+        <v>14586</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02763617028332492</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01756255940287321</v>
+        <v>0.01764040205776677</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04066935285766669</v>
+        <v>0.04116460584894788</v>
       </c>
     </row>
     <row r="5">
@@ -5847,19 +5847,19 @@
         <v>12202</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7648</v>
+        <v>7669</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19285</v>
+        <v>19024</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07471735938588284</v>
+        <v>0.07471735938588282</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04683268498861132</v>
+        <v>0.04696119687092083</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1180826161137001</v>
+        <v>0.1164874410648519</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -5868,19 +5868,19 @@
         <v>17115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12721</v>
+        <v>12557</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22598</v>
+        <v>22990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08959408292162808</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06659048108535731</v>
+        <v>0.06573274229904677</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1182955390531516</v>
+        <v>0.1203462626178403</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -5889,19 +5889,19 @@
         <v>29317</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22190</v>
+        <v>22238</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36773</v>
+        <v>38307</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08273750933931391</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06262427521521045</v>
+        <v>0.06275718497994244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1037770285205237</v>
+        <v>0.1081070892672206</v>
       </c>
     </row>
     <row r="6">
@@ -5918,19 +5918,19 @@
         <v>149563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>142644</v>
+        <v>142709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>154591</v>
+        <v>154167</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9157983861438264</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8734325802629458</v>
+        <v>0.8738338448657748</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9465903277648836</v>
+        <v>0.9439885494617409</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>384</v>
@@ -5939,19 +5939,19 @@
         <v>165670</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>159267</v>
+        <v>159391</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>171078</v>
+        <v>171753</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8672513403868481</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8337307626552247</v>
+        <v>0.8343807303841276</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8955615402188019</v>
+        <v>0.8990949549970559</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>614</v>
@@ -5960,19 +5960,19 @@
         <v>315233</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>307586</v>
+        <v>305087</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>323429</v>
+        <v>322737</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8896263203773612</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8680450965522081</v>
+        <v>0.8609943354489118</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9127559109239717</v>
+        <v>0.9108031000429229</v>
       </c>
     </row>
     <row r="7">
@@ -6064,19 +6064,19 @@
         <v>3560</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1383</v>
+        <v>1155</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7607</v>
+        <v>7431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01997580131160662</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00775950963169602</v>
+        <v>0.00647874195864966</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04268453376330681</v>
+        <v>0.04169924553178796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -6085,19 +6085,19 @@
         <v>11483</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6996</v>
+        <v>7315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17297</v>
+        <v>17034</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04744306966759358</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02890551974946242</v>
+        <v>0.03022137357462217</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07146518911935182</v>
+        <v>0.07037777493264644</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -6106,19 +6106,19 @@
         <v>15043</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>9760</v>
+        <v>10258</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21648</v>
+        <v>21667</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03579560753594531</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02322584457064901</v>
+        <v>0.02440970625506314</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05151274699517926</v>
+        <v>0.05155867760880393</v>
       </c>
     </row>
     <row r="9">
@@ -6135,19 +6135,19 @@
         <v>6161</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2716</v>
+        <v>2792</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11610</v>
+        <v>11826</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03457341527674888</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01524261517143397</v>
+        <v>0.01566481132467367</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06514982162207088</v>
+        <v>0.06636343421039059</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -6156,19 +6156,19 @@
         <v>25202</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18966</v>
+        <v>18803</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32638</v>
+        <v>32751</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1041228004318628</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07835869125816396</v>
+        <v>0.07768747634019979</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1348451058799996</v>
+        <v>0.1353111065299972</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>55</v>
@@ -6177,19 +6177,19 @@
         <v>31363</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>24183</v>
+        <v>23472</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40937</v>
+        <v>40180</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07463046725279586</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05754600994243533</v>
+        <v>0.0558531432488634</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09741156780661017</v>
+        <v>0.09561211835055233</v>
       </c>
     </row>
     <row r="10">
@@ -6206,19 +6206,19 @@
         <v>168483</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162615</v>
+        <v>162318</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172735</v>
+        <v>172760</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9454507834116446</v>
+        <v>0.9454507834116445</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9125224722565615</v>
+        <v>0.9108548577454506</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.969311905854218</v>
+        <v>0.9694529946333247</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>382</v>
@@ -6227,19 +6227,19 @@
         <v>205355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196241</v>
+        <v>196483</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>212548</v>
+        <v>213228</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8484341299005436</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8107789930912537</v>
+        <v>0.8117807531190444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8781519805748723</v>
+        <v>0.880962754138085</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>621</v>
@@ -6248,19 +6248,19 @@
         <v>373837</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>361717</v>
+        <v>364243</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>381463</v>
+        <v>383819</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8895739252112588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.860732268649349</v>
+        <v>0.8667445813210628</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9077210337506616</v>
+        <v>0.9133264851725905</v>
       </c>
     </row>
     <row r="11">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5343</v>
+        <v>3771</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005816364735569198</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03344045698293408</v>
+        <v>0.02360272238188368</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -6373,19 +6373,19 @@
         <v>9109</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4804</v>
+        <v>4563</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15506</v>
+        <v>15640</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05207774849761768</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02746820014631448</v>
+        <v>0.0260906842792297</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08865398597067933</v>
+        <v>0.08941614848351571</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -6394,19 +6394,19 @@
         <v>10038</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5546</v>
+        <v>5408</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17368</v>
+        <v>17276</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02999231045718985</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0165704756029072</v>
+        <v>0.01615907813676034</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05189115477386817</v>
+        <v>0.0516185295569275</v>
       </c>
     </row>
     <row r="13">
@@ -6423,19 +6423,19 @@
         <v>6016</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2684</v>
+        <v>2561</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12172</v>
+        <v>11659</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0376509569457853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01680013639113556</v>
+        <v>0.01603091009827879</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0761759688914907</v>
+        <v>0.07296640514052641</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -6444,19 +6444,19 @@
         <v>15819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10772</v>
+        <v>10768</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22627</v>
+        <v>22238</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09043866987384794</v>
+        <v>0.09043866987384797</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06158821925021692</v>
+        <v>0.06156467649922487</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1293655517422687</v>
+        <v>0.1271392117349555</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -6465,19 +6465,19 @@
         <v>21835</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15828</v>
+        <v>15200</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30055</v>
+        <v>29591</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06523752653656109</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04729007148599707</v>
+        <v>0.04541479409556413</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08979964214075113</v>
+        <v>0.08841294876713637</v>
       </c>
     </row>
     <row r="14">
@@ -6494,19 +6494,19 @@
         <v>152840</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146739</v>
+        <v>147108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>156567</v>
+        <v>156559</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9565326783186453</v>
+        <v>0.9565326783186454</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9183548734126405</v>
+        <v>0.9206591152165946</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9798622136654734</v>
+        <v>0.9798096719108023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>249</v>
@@ -6515,19 +6515,19 @@
         <v>149982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>141164</v>
+        <v>141666</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156648</v>
+        <v>156474</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8574835816285342</v>
+        <v>0.8574835816285344</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8070724034867711</v>
+        <v>0.8099436024640044</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8955958901511734</v>
+        <v>0.8946041982041405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>434</v>
@@ -6536,19 +6536,19 @@
         <v>302821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292961</v>
+        <v>291727</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>310793</v>
+        <v>310235</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9047701630062491</v>
+        <v>0.904770163006249</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8753097596437539</v>
+        <v>0.87162171455155</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.928588390607114</v>
+        <v>0.9269220242031584</v>
       </c>
     </row>
     <row r="15">
@@ -6643,16 +6643,16 @@
         <v>612</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5663</v>
+        <v>6003</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0113400077367459</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002845779850538688</v>
+        <v>0.002844545300364149</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02632981664726091</v>
+        <v>0.02790881110365307</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -6661,19 +6661,19 @@
         <v>12148</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7408</v>
+        <v>7615</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18387</v>
+        <v>18740</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04121985651871356</v>
+        <v>0.04121985651871357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02513430009312209</v>
+        <v>0.02583640438809609</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06238735413609284</v>
+        <v>0.06358662523583039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -6682,19 +6682,19 @@
         <v>14587</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9412</v>
+        <v>9306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20896</v>
+        <v>21291</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02861352307260406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01846106467831161</v>
+        <v>0.01825355161984375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0409884828850211</v>
+        <v>0.04176220966387532</v>
       </c>
     </row>
     <row r="17">
@@ -6711,19 +6711,19 @@
         <v>9862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5738</v>
+        <v>6070</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15298</v>
+        <v>16066</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04585062189718189</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0266788929258624</v>
+        <v>0.02822304574522117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07112238190974331</v>
+        <v>0.07469259585853819</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -6732,19 +6732,19 @@
         <v>24611</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17585</v>
+        <v>17847</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33135</v>
+        <v>34106</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08350582044989044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0596651079452029</v>
+        <v>0.06055524534191404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1124302368994972</v>
+        <v>0.1157246833544538</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -6753,19 +6753,19 @@
         <v>34473</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26103</v>
+        <v>26694</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43744</v>
+        <v>43898</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06761906036623903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05120185598609294</v>
+        <v>0.05236095269617948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08580389682374308</v>
+        <v>0.08610786975404279</v>
       </c>
     </row>
     <row r="18">
@@ -6782,19 +6782,19 @@
         <v>202788</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>197041</v>
+        <v>196300</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>207740</v>
+        <v>207355</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9428093703660723</v>
+        <v>0.9428093703660722</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9160921631837636</v>
+        <v>0.912643432904111</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9658312765412067</v>
+        <v>0.9640441229783776</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>463</v>
@@ -6803,19 +6803,19 @@
         <v>257961</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>247849</v>
+        <v>247458</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>266233</v>
+        <v>266733</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.875274323031396</v>
+        <v>0.8752743230313961</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8409647663262824</v>
+        <v>0.8396387909548072</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9033438438905732</v>
+        <v>0.9050377138096793</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>771</v>
@@ -6824,19 +6824,19 @@
         <v>460748</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>449942</v>
+        <v>449276</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>470720</v>
+        <v>470143</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.903767416561157</v>
+        <v>0.9037674165611569</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8825718485498231</v>
+        <v>0.8812660231644535</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9233284622272561</v>
+        <v>0.922197114090446</v>
       </c>
     </row>
     <row r="19">
@@ -6928,19 +6928,19 @@
         <v>8477</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5068</v>
+        <v>4833</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13985</v>
+        <v>14223</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01183312678120107</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007074602784038115</v>
+        <v>0.006746157465518851</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01952148090821837</v>
+        <v>0.01985374566134993</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -6949,19 +6949,19 @@
         <v>40984</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>32177</v>
+        <v>32468</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53674</v>
+        <v>52008</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04540176185423266</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03564590980896092</v>
+        <v>0.03596750872516578</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05945922458095464</v>
+        <v>0.05761373358340707</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>87</v>
@@ -6970,19 +6970,19 @@
         <v>49461</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>39050</v>
+        <v>39959</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61240</v>
+        <v>61720</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03054879435188798</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02411859088626009</v>
+        <v>0.02467988266453396</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03782355374424392</v>
+        <v>0.03811989982161183</v>
       </c>
     </row>
     <row r="21">
@@ -6999,19 +6999,19 @@
         <v>34242</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25449</v>
+        <v>25368</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44908</v>
+        <v>44735</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04779722636018503</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03552355394123184</v>
+        <v>0.0354109121044317</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06268608136610557</v>
+        <v>0.06244434322081316</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>156</v>
@@ -7020,19 +7020,19 @@
         <v>82746</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>70398</v>
+        <v>70187</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>95457</v>
+        <v>96800</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09166556273445943</v>
+        <v>0.09166556273445944</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07798652981646685</v>
+        <v>0.07775226553583345</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1057468461291602</v>
+        <v>0.1072344315257967</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>206</v>
@@ -7041,19 +7041,19 @@
         <v>116988</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>100923</v>
+        <v>101333</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>133441</v>
+        <v>133606</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07225533133447958</v>
+        <v>0.07225533133447956</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06233331626907861</v>
+        <v>0.06258658919025273</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08241756881263768</v>
+        <v>0.08251942424259345</v>
       </c>
     </row>
     <row r="22">
@@ -7070,19 +7070,19 @@
         <v>673672</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>662235</v>
+        <v>662550</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>684465</v>
+        <v>683923</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9403696468586138</v>
+        <v>0.940369646858614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9244040815079172</v>
+        <v>0.9248438855732809</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9554343491915447</v>
+        <v>0.9546777993471079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1478</v>
@@ -7091,19 +7091,19 @@
         <v>778968</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>763679</v>
+        <v>763695</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>793362</v>
+        <v>793730</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8629326754113079</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8459957560948943</v>
+        <v>0.8460134375631353</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8788783293163536</v>
+        <v>0.8792864122496978</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2440</v>
@@ -7112,19 +7112,19 @@
         <v>1452640</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1432540</v>
+        <v>1433281</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1471054</v>
+        <v>1470449</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8971958743136322</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8847814130530199</v>
+        <v>0.8852391957948463</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9085691361985704</v>
+        <v>0.9081954130605852</v>
       </c>
     </row>
     <row r="23">
